--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema4c-Plxnb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema4c-Plxnb2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>10.318563</v>
+        <v>7.528410666666667</v>
       </c>
       <c r="H2">
-        <v>30.955689</v>
+        <v>22.585232</v>
       </c>
       <c r="I2">
-        <v>0.4336708446967719</v>
+        <v>0.3846034394416388</v>
       </c>
       <c r="J2">
-        <v>0.433670844696772</v>
+        <v>0.3846034394416388</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.806900666666666</v>
+        <v>1.599392</v>
       </c>
       <c r="N2">
-        <v>26.420702</v>
+        <v>4.798176</v>
       </c>
       <c r="O2">
-        <v>0.1733678197953833</v>
+        <v>0.03952976301548796</v>
       </c>
       <c r="P2">
-        <v>0.1733678197953834</v>
+        <v>0.03952976301548796</v>
       </c>
       <c r="Q2">
-        <v>90.87455936374198</v>
+        <v>12.04087979298133</v>
       </c>
       <c r="R2">
-        <v>817.871034273678</v>
+        <v>108.367918136832</v>
       </c>
       <c r="S2">
-        <v>0.07518456885390164</v>
+        <v>0.01520328281606956</v>
       </c>
       <c r="T2">
-        <v>0.07518456885390165</v>
+        <v>0.01520328281606956</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>10.318563</v>
+        <v>7.528410666666667</v>
       </c>
       <c r="H3">
-        <v>30.955689</v>
+        <v>22.585232</v>
       </c>
       <c r="I3">
-        <v>0.4336708446967719</v>
+        <v>0.3846034394416388</v>
       </c>
       <c r="J3">
-        <v>0.433670844696772</v>
+        <v>0.3846034394416388</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>56.30067200000001</v>
       </c>
       <c r="O3">
-        <v>0.3694347242421866</v>
+        <v>0.4638329693976876</v>
       </c>
       <c r="P3">
-        <v>0.3694347242421866</v>
+        <v>0.4638329693976876</v>
       </c>
       <c r="Q3">
-        <v>193.647343658112</v>
+        <v>141.2848598751005</v>
       </c>
       <c r="R3">
-        <v>1742.826092923008</v>
+        <v>1271.563738875904</v>
       </c>
       <c r="S3">
-        <v>0.1602130689224281</v>
+        <v>0.1783917553567791</v>
       </c>
       <c r="T3">
-        <v>0.1602130689224281</v>
+        <v>0.1783917553567791</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>10.318563</v>
+        <v>7.528410666666667</v>
       </c>
       <c r="H4">
-        <v>30.955689</v>
+        <v>22.585232</v>
       </c>
       <c r="I4">
-        <v>0.4336708446967719</v>
+        <v>0.3846034394416388</v>
       </c>
       <c r="J4">
-        <v>0.433670844696772</v>
+        <v>0.3846034394416388</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.225144</v>
+        <v>20.09416733333333</v>
       </c>
       <c r="N4">
-        <v>69.675432</v>
+        <v>60.28250199999999</v>
       </c>
       <c r="O4">
-        <v>0.4571974559624301</v>
+        <v>0.4966372675868244</v>
       </c>
       <c r="P4">
-        <v>0.4571974559624301</v>
+        <v>0.4966372675868245</v>
       </c>
       <c r="Q4">
-        <v>239.650111548072</v>
+        <v>151.2771436900515</v>
       </c>
       <c r="R4">
-        <v>2156.851003932648</v>
+        <v>1361.494293210464</v>
       </c>
       <c r="S4">
-        <v>0.1982732069204423</v>
+        <v>0.1910084012687902</v>
       </c>
       <c r="T4">
-        <v>0.1982732069204423</v>
+        <v>0.1910084012687902</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>25.453451</v>
       </c>
       <c r="I5">
-        <v>0.35658775340513</v>
+        <v>0.4334462803064951</v>
       </c>
       <c r="J5">
-        <v>0.35658775340513</v>
+        <v>0.433446280306495</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.806900666666666</v>
+        <v>1.599392</v>
       </c>
       <c r="N5">
-        <v>26.420702</v>
+        <v>4.798176</v>
       </c>
       <c r="O5">
-        <v>0.1733678197953833</v>
+        <v>0.03952976301548796</v>
       </c>
       <c r="P5">
-        <v>0.1733678197953834</v>
+        <v>0.03952976301548796</v>
       </c>
       <c r="Q5">
-        <v>74.7220048602891</v>
+        <v>13.57001530059733</v>
       </c>
       <c r="R5">
-        <v>672.498043742602</v>
+        <v>122.130137705376</v>
       </c>
       <c r="S5">
-        <v>0.06182084137358117</v>
+        <v>0.01713402874046051</v>
       </c>
       <c r="T5">
-        <v>0.06182084137358118</v>
+        <v>0.01713402874046051</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>25.453451</v>
       </c>
       <c r="I6">
-        <v>0.35658775340513</v>
+        <v>0.4334462803064951</v>
       </c>
       <c r="J6">
-        <v>0.35658775340513</v>
+        <v>0.433446280306495</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>56.30067200000001</v>
       </c>
       <c r="O6">
-        <v>0.3694347242421866</v>
+        <v>0.4638329693976876</v>
       </c>
       <c r="P6">
-        <v>0.3694347242421866</v>
+        <v>0.4638329693976876</v>
       </c>
       <c r="Q6">
         <v>159.2273773354525</v>
@@ -818,10 +818,10 @@
         <v>1433.046396019072</v>
       </c>
       <c r="S6">
-        <v>0.131735898347365</v>
+        <v>0.201046675268944</v>
       </c>
       <c r="T6">
-        <v>0.131735898347365</v>
+        <v>0.201046675268944</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>25.453451</v>
       </c>
       <c r="I7">
-        <v>0.35658775340513</v>
+        <v>0.4334462803064951</v>
       </c>
       <c r="J7">
-        <v>0.35658775340513</v>
+        <v>0.433446280306495</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.225144</v>
+        <v>20.09416733333333</v>
       </c>
       <c r="N7">
-        <v>69.675432</v>
+        <v>60.28250199999999</v>
       </c>
       <c r="O7">
-        <v>0.4571974559624301</v>
+        <v>0.4966372675868244</v>
       </c>
       <c r="P7">
-        <v>0.4571974559624301</v>
+        <v>0.4966372675868245</v>
       </c>
       <c r="Q7">
-        <v>197.0533549239813</v>
+        <v>170.4886345349336</v>
       </c>
       <c r="R7">
-        <v>1773.480194315832</v>
+        <v>1534.397710814402</v>
       </c>
       <c r="S7">
-        <v>0.1630310136841838</v>
+        <v>0.2152655762970905</v>
       </c>
       <c r="T7">
-        <v>0.1630310136841838</v>
+        <v>0.2152655762970905</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.990489666666666</v>
+        <v>3.561581333333333</v>
       </c>
       <c r="H8">
-        <v>14.971469</v>
+        <v>10.684744</v>
       </c>
       <c r="I8">
-        <v>0.2097414018980981</v>
+        <v>0.1819502802518661</v>
       </c>
       <c r="J8">
-        <v>0.2097414018980981</v>
+        <v>0.1819502802518661</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.806900666666666</v>
+        <v>1.599392</v>
       </c>
       <c r="N8">
-        <v>26.420702</v>
+        <v>4.798176</v>
       </c>
       <c r="O8">
-        <v>0.1733678197953833</v>
+        <v>0.03952976301548796</v>
       </c>
       <c r="P8">
-        <v>0.1733678197953834</v>
+        <v>0.03952976301548796</v>
       </c>
       <c r="Q8">
-        <v>43.95074677235976</v>
+        <v>5.696364691882667</v>
       </c>
       <c r="R8">
-        <v>395.5567209512379</v>
+        <v>51.267282226944</v>
       </c>
       <c r="S8">
-        <v>0.03636240956790055</v>
+        <v>0.007192451458957885</v>
       </c>
       <c r="T8">
-        <v>0.03636240956790056</v>
+        <v>0.007192451458957885</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.990489666666666</v>
+        <v>3.561581333333333</v>
       </c>
       <c r="H9">
-        <v>14.971469</v>
+        <v>10.684744</v>
       </c>
       <c r="I9">
-        <v>0.2097414018980981</v>
+        <v>0.1819502802518661</v>
       </c>
       <c r="J9">
-        <v>0.2097414018980981</v>
+        <v>0.1819502802518661</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>56.30067200000001</v>
       </c>
       <c r="O9">
-        <v>0.3694347242421866</v>
+        <v>0.4638329693976876</v>
       </c>
       <c r="P9">
-        <v>0.3694347242421866</v>
+        <v>0.4638329693976876</v>
       </c>
       <c r="Q9">
-        <v>93.65597394746311</v>
+        <v>66.83980748310756</v>
       </c>
       <c r="R9">
-        <v>842.903765527168</v>
+        <v>601.5582673479681</v>
       </c>
       <c r="S9">
-        <v>0.07748575697239352</v>
+        <v>0.08439453877196448</v>
       </c>
       <c r="T9">
-        <v>0.07748575697239352</v>
+        <v>0.08439453877196448</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.990489666666666</v>
+        <v>3.561581333333333</v>
       </c>
       <c r="H10">
-        <v>14.971469</v>
+        <v>10.684744</v>
       </c>
       <c r="I10">
-        <v>0.2097414018980981</v>
+        <v>0.1819502802518661</v>
       </c>
       <c r="J10">
-        <v>0.2097414018980981</v>
+        <v>0.1819502802518661</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.225144</v>
+        <v>20.09416733333333</v>
       </c>
       <c r="N10">
-        <v>69.675432</v>
+        <v>60.28250199999999</v>
       </c>
       <c r="O10">
-        <v>0.4571974559624301</v>
+        <v>0.4966372675868244</v>
       </c>
       <c r="P10">
-        <v>0.4571974559624301</v>
+        <v>0.4966372675868245</v>
       </c>
       <c r="Q10">
-        <v>115.9048411388453</v>
+        <v>71.56701128327643</v>
       </c>
       <c r="R10">
-        <v>1043.143570249608</v>
+        <v>644.103101549488</v>
       </c>
       <c r="S10">
-        <v>0.09589323535780407</v>
+        <v>0.0903632900209437</v>
       </c>
       <c r="T10">
-        <v>0.09589323535780409</v>
+        <v>0.09036329002094372</v>
       </c>
     </row>
   </sheetData>
